--- a/public/data/soil/soil_table_togo.xlsx
+++ b/public/data/soil/soil_table_togo.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -749,28 +749,28 @@
         <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>905.4</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>50953.9</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>54704.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.535</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.906</v>
+        <v>47.606</v>
       </c>
       <c r="K2" t="n">
-        <v>50.084</v>
+        <v>37.585</v>
       </c>
     </row>
     <row r="3">
@@ -790,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>13403.2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>22961.1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -802,10 +802,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.985</v>
+        <v>14.509</v>
       </c>
       <c r="K3" t="n">
-        <v>9.91</v>
+        <v>10.452</v>
       </c>
     </row>
     <row r="4">
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24499.8</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>51373.6</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.737</v>
+        <v>29.96</v>
       </c>
       <c r="K4" t="n">
-        <v>34.116</v>
+        <v>33.397</v>
       </c>
     </row>
     <row r="5">
@@ -860,10 +860,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>20272.6</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>89954</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -872,10 +872,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>24.278</v>
+        <v>27.867</v>
       </c>
       <c r="K5" t="n">
-        <v>162.2</v>
+        <v>177.244</v>
       </c>
     </row>
     <row r="6">
@@ -889,28 +889,28 @@
         <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>129.7</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>37585.3</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>51959.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.212</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.051</v>
+        <v>49.943</v>
       </c>
       <c r="K6" t="n">
-        <v>84.626</v>
+        <v>110.186</v>
       </c>
     </row>
     <row r="7">
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24330.6</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>13277.2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -942,10 +942,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>28.79</v>
+        <v>45.847</v>
       </c>
       <c r="K7" t="n">
-        <v>14.436</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="8">
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>76568.2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>61079.1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>56.358</v>
+        <v>79.281</v>
       </c>
       <c r="K8" t="n">
-        <v>44.726</v>
+        <v>31.873</v>
       </c>
     </row>
     <row r="9">
@@ -1000,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>720.5</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>29586.3</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.125</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>63.178</v>
+        <v>86.975</v>
       </c>
     </row>
     <row r="10">
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>5287.7</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>123483.8</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>6.976</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>169.478</v>
+        <v>176.698</v>
       </c>
     </row>
     <row r="11">
@@ -1070,10 +1070,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5627.5</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>50231</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.201</v>
+        <v>2.841</v>
       </c>
       <c r="K11" t="n">
-        <v>57.937</v>
+        <v>88.119</v>
       </c>
     </row>
     <row r="12">
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>9470.9</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>79314.2</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>9.409</v>
+        <v>5.491</v>
       </c>
       <c r="K12" t="n">
-        <v>95.529</v>
+        <v>103.915</v>
       </c>
     </row>
     <row r="13">
@@ -1140,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>12686.4</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>45284</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1152,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>28.945</v>
+        <v>19.737</v>
       </c>
       <c r="K13" t="n">
-        <v>123.862</v>
+        <v>138.4</v>
       </c>
     </row>
     <row r="14">
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7666.7</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>13.197</v>
+        <v>18.771</v>
       </c>
     </row>
     <row r="15">
@@ -1210,10 +1210,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>6546</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>34219</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1222,10 +1222,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6.907</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>68.737</v>
+        <v>62.511</v>
       </c>
     </row>
     <row r="16">
@@ -1245,10 +1245,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>199.4</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>15424.5</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.192</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>58.068</v>
+        <v>70.84</v>
       </c>
     </row>
     <row r="17">
@@ -1280,10 +1280,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1222.4</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4869.3</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1.999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1315,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>998.4</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>11442.8</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1327,10 +1327,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.161</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>33.304</v>
+        <v>24.181</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>131.7</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>965</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>26602.9</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>6.122</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>113.978</v>
+        <v>124.052</v>
       </c>
     </row>
     <row r="21">
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>371.9</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>48566</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.424</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>148.137</v>
+        <v>167.512</v>
       </c>
     </row>
     <row r="22">
@@ -1455,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>5245.8</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>81428.5</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.964</v>
+        <v>2.533</v>
       </c>
       <c r="K22" t="n">
-        <v>227.949</v>
+        <v>259.062</v>
       </c>
     </row>
     <row r="23">
@@ -1484,28 +1484,28 @@
         <v>55</v>
       </c>
       <c r="D23" t="n">
-        <v>357.3</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>28945.1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>9910.2</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>59.316</v>
+        <v>66.248</v>
       </c>
       <c r="K23" t="n">
-        <v>14.846</v>
+        <v>4.227</v>
       </c>
     </row>
     <row r="24">
@@ -1519,28 +1519,28 @@
         <v>56</v>
       </c>
       <c r="D24" t="n">
-        <v>2580.7</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>22110.1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>9242</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>3.286</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>39.235</v>
+        <v>45.75</v>
       </c>
       <c r="K24" t="n">
-        <v>14.282</v>
+        <v>11.506</v>
       </c>
     </row>
     <row r="25">
@@ -1554,28 +1554,28 @@
         <v>57</v>
       </c>
       <c r="D25" t="n">
-        <v>3248.8</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>49074.8</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>10922.7</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>6.28</v>
+        <v>3.671</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.099</v>
+        <v>124.412</v>
       </c>
       <c r="K25" t="n">
-        <v>22.456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1595,10 +1595,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>9230.1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>70936.3</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>15.24</v>
+        <v>7.513</v>
       </c>
       <c r="K26" t="n">
-        <v>146.71</v>
+        <v>128.771</v>
       </c>
     </row>
     <row r="27">
@@ -1624,25 +1624,25 @@
         <v>59</v>
       </c>
       <c r="D27" t="n">
-        <v>1621.7</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>12864</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>3.018</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>30.023</v>
+        <v>35.873</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1665,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>13055.9</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>92203.3</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1677,10 +1677,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>19.685</v>
+        <v>15.967</v>
       </c>
       <c r="K28" t="n">
-        <v>156.229</v>
+        <v>174.138</v>
       </c>
     </row>
     <row r="29">
@@ -1700,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>17794.6</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>99731.2</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>24.12</v>
+        <v>35.471</v>
       </c>
       <c r="K29" t="n">
-        <v>241.443</v>
+        <v>249.586</v>
       </c>
     </row>
     <row r="30">
@@ -1729,28 +1729,28 @@
         <v>62</v>
       </c>
       <c r="D30" t="n">
-        <v>126.7</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>21892.5</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>175.3</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.603</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>103.535</v>
+        <v>102.393</v>
       </c>
       <c r="K30" t="n">
-        <v>0.478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1764,28 +1764,28 @@
         <v>63</v>
       </c>
       <c r="D31" t="n">
-        <v>828.2</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>36137</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>240.7</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.769</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>70.654</v>
+        <v>55.258</v>
       </c>
       <c r="K31" t="n">
-        <v>0.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>26205.6</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>71.246</v>
+        <v>95.28</v>
       </c>
     </row>
     <row r="33">
@@ -1840,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>9743.2</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>69058.7</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1852,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>13.64</v>
+        <v>3.952</v>
       </c>
       <c r="K33" t="n">
-        <v>134.421</v>
+        <v>169.465</v>
       </c>
     </row>
     <row r="34">
@@ -1869,25 +1869,25 @@
         <v>66</v>
       </c>
       <c r="D34" t="n">
-        <v>16422.1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>18746.5</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>39.301</v>
+        <v>43.84</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>51.037</v>
+        <v>42.042</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>19711.6</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>74.251</v>
+        <v>78.797</v>
       </c>
     </row>
     <row r="36">
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>59690.1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>82.139</v>
+        <v>86.968</v>
       </c>
     </row>
     <row r="37">
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>41084.8</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>85.769</v>
+        <v>71.57</v>
       </c>
     </row>
     <row r="38">
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>64212.9</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>92.586</v>
+        <v>96.975</v>
       </c>
     </row>
     <row r="39">
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>92160.8</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>104.791</v>
+        <v>133.446</v>
       </c>
     </row>
     <row r="40">
@@ -2085,10 +2085,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>48324</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2097,10 +2097,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.047</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>130.78</v>
+        <v>157.397</v>
       </c>
     </row>
     <row r="41">
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>73760.9</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>249.576</v>
+        <v>234.568</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/soil/soil_table_togo.xlsx
+++ b/public/data/soil/soil_table_togo.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>41132.7</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>27920.4</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -790,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>7274.9</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5881.7</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>16421.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>28671.3</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -860,10 +860,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>11576.8</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>55941.9</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>23248</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>34838.8</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>14185.4</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>6545.3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>28329.8</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>19874.9</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>22308.1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>925.7</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>61773.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1070,10 +1070,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2022.2</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>33764.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2823.4</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>42591.3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1140,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>7181.4</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>25298.8</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>11928.4</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1210,10 +1210,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>6749.2</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>73444.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>20223</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1280,10 +1280,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2099.3</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>9048.4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>23192.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>5234.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>46471.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>90023</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1455,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>6627.8</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>130580.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1490,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>49012.6</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>11465.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>18845.1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>5147.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1554,13 +1554,13 @@
         <v>57</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>2736.6</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>72760.9</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>9304.3</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>82487</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1624,13 +1624,13 @@
         <v>59</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>2736.6</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>21388.2</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1665,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>9389.6</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>70364.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>35414</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>132253.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>30347.2</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>52166.2</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>35230.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1840,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>18238.1</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>82907.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1869,13 +1869,13 @@
         <v>66</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>13377.9</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>28719.5</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>33036.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>49297</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>48563.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>66385.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>77714</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>69821.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>99966.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
